--- a/backend/app/etl/data/2022_12_15_Masterlijst_Algoritmeregister.xlsx
+++ b/backend/app/etl/data/2022_12_15_Masterlijst_Algoritmeregister.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ictubeheer.sharepoint.com/teams/Algoritmeregister/Gedeelde documenten/Aanlevering ICTU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="439" documentId="11_3992FF4FD34257FAE683B122FAAB90AC598255A0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E478E4D3-7064-46D1-B994-7EBDC33B8F23}"/>
+  <xr:revisionPtr revIDLastSave="441" documentId="11_3992FF4FD34257FAE683B122FAAB90AC598255A0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB622BBE-ACE9-496B-83C2-282956DBD781}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="794" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="794" firstSheet="3" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template (dupliceer dit blad)" sheetId="1" r:id="rId1"/>
@@ -8973,7 +8973,7 @@
   </sheetPr>
   <dimension ref="A1:Z40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="H19" sqref="H19"/>
       <selection pane="bottomLeft"/>
@@ -10511,13 +10511,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5B3EFDB-4625-46D8-A542-B9D804A2020D}">
   <sheetPr>
-    <tabColor rgb="FF70AD47"/>
+    <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A1:AB40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C27" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="C31" sqref="C31"/>
       <selection pane="bottomLeft"/>
       <selection pane="topRight"/>
     </sheetView>
@@ -13200,7 +13200,7 @@
   <dimension ref="A1:Z40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
       <selection pane="bottomLeft"/>
       <selection pane="topRight"/>
@@ -14699,8 +14699,8 @@
   <dimension ref="A1:AN40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" sqref="A1:B37"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="topRight"/>
     </sheetView>
@@ -17100,13 +17100,13 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32ECD253-AC8C-4B7F-84F8-E56F63E31F7C}">
   <sheetPr>
-    <tabColor rgb="FFFFC000"/>
+    <tabColor rgb="FF70AD47"/>
   </sheetPr>
   <dimension ref="A1:Z40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="R4" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="S5" sqref="S5"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="O4" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="S20" sqref="S20"/>
       <selection pane="bottomLeft"/>
       <selection pane="topRight"/>
     </sheetView>
@@ -21151,7 +21151,7 @@
   <dimension ref="A1:Z40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
       <selection pane="bottomLeft"/>
       <selection pane="topRight"/>
